--- a/com.expedia/src/test/resources/test_data.xlsx
+++ b/com.expedia/src/test/resources/test_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferdous/Desktop/Selenium Bootcamp/SeleniumBootcamp/com.expedia/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E1FDF0D-7C86-4146-8BFE-EB5498DE96E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6B7F12-91EF-E241-9550-4673FEF07307}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="440" windowWidth="21540" windowHeight="16220" xr2:uid="{8D4EE627-1D85-A64D-8376-ABEDAE1C486E}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="22200" windowHeight="16220" activeTab="1" xr2:uid="{8D4EE627-1D85-A64D-8376-ABEDAE1C486E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ID No.</t>
   </si>
@@ -52,13 +53,43 @@
   </si>
   <si>
     <t>New York</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Cruise Destination</t>
+  </si>
+  <si>
+    <t>Caribbean</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Africa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -74,16 +105,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -91,18 +141,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -421,7 +492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9AB2FAF-DD86-FA4F-9087-A2A9F4369852}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -543,4 +614,94 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3492333-238F-414A-97F5-452142FD9563}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="35" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="34">
+      <c r="A1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="34">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="34">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="34">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="34">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="34">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="34">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="34">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="34">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/com.expedia/src/test/resources/test_data.xlsx
+++ b/com.expedia/src/test/resources/test_data.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ferdous/Desktop/Selenium Bootcamp/SeleniumBootcamp/com.expedia/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB6B7F12-91EF-E241-9550-4673FEF07307}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72C51A2-0B87-D14F-B92A-E7DF8C9679F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="22200" windowHeight="16220" activeTab="1" xr2:uid="{8D4EE627-1D85-A64D-8376-ABEDAE1C486E}"/>
+    <workbookView xWindow="780" yWindow="440" windowWidth="22200" windowHeight="16160" activeTab="3" xr2:uid="{8D4EE627-1D85-A64D-8376-ABEDAE1C486E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="DifferentSignIn" sheetId="3" r:id="rId3"/>
+    <sheet name="Destin" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>ID No.</t>
   </si>
@@ -83,6 +85,36 @@
   </si>
   <si>
     <t>Africa</t>
+  </si>
+  <si>
+    <t>lafkjklfj@79837598</t>
+  </si>
+  <si>
+    <t>fakjahjh@gmail.com</t>
+  </si>
+  <si>
+    <t>khadfhd@yahoo.com</t>
+  </si>
+  <si>
+    <t>fkajhfhj24`2</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Thailand</t>
+  </si>
+  <si>
+    <t>Hongkong</t>
+  </si>
+  <si>
+    <t>Dhaka</t>
+  </si>
+  <si>
+    <t>Chittagong</t>
   </si>
 </sst>
 </file>
@@ -493,7 +525,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -620,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3492333-238F-414A-97F5-452142FD9563}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -704,4 +736,110 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1F62A93-CFB8-3A41-96AE-449D58C67B48}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="37.33203125" customWidth="1"/>
+    <col min="2" max="2" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4533E0DB-146A-8446-A02E-03075F654C37}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{44A2C15B-6D91-EC41-96E9-6E545E9B5619}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{7C122415-0FC0-AB4A-97A0-1B17340B5B42}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{73A26C46-EA29-5246-B3B9-DDA23B8BEAE2}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{F26839D9-070E-B24F-A85C-02078F690259}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF9559C1-5EE3-6945-921A-9918E9A4716A}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="33.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>